--- a/sm_iti_randomization.xlsx
+++ b/sm_iti_randomization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2E9F5B-8311-4648-A4FF-7D8925EAFAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D14487-CB6E-49C5-A8A6-14A7E4BD50C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B6B42273-C89E-401B-BEA5-DC942271AE65}"/>
   </bookViews>
@@ -405,9 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BA7CCC-2BF3-4AC0-914E-5571BAB9284E}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -421,302 +419,302 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
